--- a/common/src/main/webapp/imports/export-张旭-58.xlsx
+++ b/common/src/main/webapp/imports/export-张旭-58.xlsx
@@ -1909,8 +1909,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
@@ -1933,7 +1933,45 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1942,6 +1980,58 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1962,85 +2052,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2055,21 +2069,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2077,7 +2077,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2092,7 +2092,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2104,7 +2104,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2116,7 +2230,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2128,145 +2266,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2286,6 +2286,24 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -2301,22 +2319,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2336,35 +2349,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2383,151 +2374,160 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2893,7 +2893,7 @@
   <dimension ref="B1:AF58"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B31" workbookViewId="0">
-      <selection activeCell="B31" sqref="B$1:B$1048576"/>
+      <selection activeCell="E34" sqref="B1:S58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="0" customHeight="1" zeroHeight="1"/>
@@ -2930,32 +2930,32 @@
     <col min="36" max="36" width="8.88333333333333" style="1" hidden="1" customWidth="1"/>
     <col min="37" max="37" width="0" style="1" hidden="1" customWidth="1"/>
     <col min="38" max="16383" width="8.88333333333333" style="1" hidden="1"/>
-    <col min="16384" max="16384" width="0" style="1"/>
+    <col min="16384" max="16384" width="0" style="1" hidden="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="49.95" customHeight="1" spans="2:32">
-      <c r="B1" s="1">
+      <c r="B1" s="2">
         <v>1602</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>3</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="2" t="s">
         <v>5</v>
       </c>
       <c r="J1" s="2" t="s">
@@ -2967,23 +2967,23 @@
       <c r="L1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="2" t="s">
         <v>10</v>
       </c>
       <c r="O1" s="2"/>
-      <c r="P1" s="1" t="s">
+      <c r="P1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="Q1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="R1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="S1" s="2" t="s">
         <v>14</v>
       </c>
       <c r="Y1" s="3" t="s">
@@ -3009,28 +3009,28 @@
       </c>
     </row>
     <row r="2" ht="49.95" customHeight="1" spans="2:32">
-      <c r="B2" s="1">
+      <c r="B2" s="2">
         <v>146</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="2" t="s">
         <v>23</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="H2" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="I2" s="2" t="s">
         <v>25</v>
       </c>
       <c r="J2" s="2" t="s">
@@ -3042,22 +3042,23 @@
       <c r="L2" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="M2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="N2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="O2" s="1">
+      <c r="O2" s="2">
         <v>198</v>
       </c>
-      <c r="P2" s="1" t="s">
+      <c r="P2" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="R2" s="1">
+      <c r="Q2" s="2"/>
+      <c r="R2" s="2">
         <v>2489727567</v>
       </c>
-      <c r="S2" s="1" t="s">
+      <c r="S2" s="2" t="s">
         <v>29</v>
       </c>
       <c r="Y2" s="3" t="s">
@@ -3083,25 +3084,26 @@
       </c>
     </row>
     <row r="3" ht="49.95" customHeight="1" spans="2:32">
-      <c r="B3" s="1">
+      <c r="B3" s="2">
         <v>1620</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="E3" s="2"/>
+      <c r="F3" s="2" t="s">
         <v>23</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="H3" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="I3" s="2" t="s">
         <v>35</v>
       </c>
       <c r="J3" s="2" t="s">
@@ -3113,25 +3115,25 @@
       <c r="L3" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="M3" s="1" t="s">
+      <c r="M3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="N3" s="1" t="s">
+      <c r="N3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="O3" s="1">
+      <c r="O3" s="2">
         <v>10</v>
       </c>
-      <c r="P3" s="1" t="s">
+      <c r="P3" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="Q3" s="1" t="s">
+      <c r="Q3" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="R3" s="1" t="s">
+      <c r="R3" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="S3" s="1" t="s">
+      <c r="S3" s="2" t="s">
         <v>41</v>
       </c>
       <c r="Y3" s="3" t="s">
@@ -3157,28 +3159,28 @@
       </c>
     </row>
     <row r="4" ht="49.95" customHeight="1" spans="2:32">
-      <c r="B4" s="1">
+      <c r="B4" s="2">
         <v>1100</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="F4" s="2" t="s">
         <v>47</v>
       </c>
       <c r="G4" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="H4" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="I4" s="2" t="s">
         <v>49</v>
       </c>
       <c r="J4" s="2" t="s">
@@ -3190,24 +3192,25 @@
       <c r="L4" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="M4" s="1" t="s">
+      <c r="M4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="N4" s="1" t="s">
+      <c r="N4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="1">
+      <c r="O4" s="2">
         <v>56</v>
       </c>
-      <c r="P4" s="1" t="s">
+      <c r="P4" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="Q4" s="1" t="s">
+      <c r="Q4" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="R4" s="1">
+      <c r="R4" s="2">
         <v>13998154821</v>
       </c>
+      <c r="S4" s="2"/>
       <c r="Y4" s="3" t="s">
         <v>15</v>
       </c>
@@ -3231,28 +3234,28 @@
       </c>
     </row>
     <row r="5" ht="49.95" customHeight="1" spans="2:32">
-      <c r="B5" s="1">
+      <c r="B5" s="2">
         <v>1113</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E5" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="F5" s="2" t="s">
         <v>58</v>
       </c>
       <c r="G5" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="H5" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="I5" s="1" t="s">
+      <c r="I5" s="2" t="s">
         <v>60</v>
       </c>
       <c r="J5" s="2" t="s">
@@ -3264,21 +3267,23 @@
       <c r="L5" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="M5" s="1" t="s">
+      <c r="M5" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="N5" s="1" t="s">
+      <c r="N5" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="P5" s="1" t="s">
+      <c r="O5" s="2"/>
+      <c r="P5" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="Q5" s="1" t="s">
+      <c r="Q5" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="R5" s="1">
+      <c r="R5" s="2">
         <v>2483787011</v>
       </c>
+      <c r="S5" s="2"/>
       <c r="Y5" s="3" t="s">
         <v>15</v>
       </c>
@@ -3302,28 +3307,28 @@
       </c>
     </row>
     <row r="6" ht="49.95" customHeight="1" spans="2:32">
-      <c r="B6" s="1">
+      <c r="B6" s="2">
         <v>1621</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="E6" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="F6" s="2" t="s">
         <v>23</v>
       </c>
       <c r="G6" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="H6" s="1" t="s">
+      <c r="H6" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="I6" s="1" t="s">
+      <c r="I6" s="2" t="s">
         <v>70</v>
       </c>
       <c r="J6" s="2" t="s">
@@ -3335,25 +3340,25 @@
       <c r="L6" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="M6" s="1" t="s">
+      <c r="M6" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="N6" s="1" t="s">
+      <c r="N6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="O6" s="1">
+      <c r="O6" s="2">
         <v>78</v>
       </c>
-      <c r="P6" s="1" t="s">
+      <c r="P6" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="Q6" s="1" t="s">
+      <c r="Q6" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="R6" s="1">
+      <c r="R6" s="2">
         <v>88072418</v>
       </c>
-      <c r="S6" s="1" t="s">
+      <c r="S6" s="2" t="s">
         <v>74</v>
       </c>
       <c r="Y6" s="3" t="s">
@@ -3379,28 +3384,28 @@
       </c>
     </row>
     <row r="7" ht="49.95" customHeight="1" spans="2:32">
-      <c r="B7" s="1">
+      <c r="B7" s="2">
         <v>142</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="E7" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="F7" s="2" t="s">
         <v>80</v>
       </c>
       <c r="G7" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="H7" s="1" t="s">
+      <c r="H7" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="I7" s="1" t="s">
+      <c r="I7" s="2" t="s">
         <v>82</v>
       </c>
       <c r="J7" s="2" t="s">
@@ -3412,22 +3417,23 @@
       <c r="L7" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="M7" s="1" t="s">
+      <c r="M7" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="N7" s="1" t="s">
+      <c r="N7" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="O7" s="1">
+      <c r="O7" s="2">
         <v>78</v>
       </c>
-      <c r="P7" s="1" t="s">
+      <c r="P7" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="R7" s="1">
+      <c r="Q7" s="2"/>
+      <c r="R7" s="2">
         <v>88081008</v>
       </c>
-      <c r="S7" s="1" t="s">
+      <c r="S7" s="2" t="s">
         <v>86</v>
       </c>
       <c r="Y7" s="3" t="s">
@@ -3453,28 +3459,28 @@
       </c>
     </row>
     <row r="8" ht="49.95" customHeight="1" spans="2:32">
-      <c r="B8" s="1">
+      <c r="B8" s="2">
         <v>1088</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D8" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="E8" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="F8" s="2" t="s">
         <v>91</v>
       </c>
       <c r="G8" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="H8" s="1" t="s">
+      <c r="H8" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="I8" s="1" t="s">
+      <c r="I8" s="2" t="s">
         <v>93</v>
       </c>
       <c r="J8" s="2" t="s">
@@ -3486,25 +3492,25 @@
       <c r="L8" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="M8" s="1" t="s">
+      <c r="M8" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="N8" s="1" t="s">
+      <c r="N8" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="O8" s="1">
+      <c r="O8" s="2">
         <v>56</v>
       </c>
-      <c r="P8" s="1" t="s">
+      <c r="P8" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="Q8" s="1" t="s">
+      <c r="Q8" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="R8" s="1" t="s">
+      <c r="R8" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="S8" s="1" t="s">
+      <c r="S8" s="2" t="s">
         <v>98</v>
       </c>
       <c r="Y8" s="3" t="s">
@@ -3530,28 +3536,28 @@
       </c>
     </row>
     <row r="9" ht="49.95" customHeight="1" spans="2:32">
-      <c r="B9" s="1">
+      <c r="B9" s="2">
         <v>1119</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D9" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="E9" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="F9" s="2" t="s">
         <v>102</v>
       </c>
       <c r="G9" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="H9" s="1" t="s">
+      <c r="H9" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="I9" s="1" t="s">
+      <c r="I9" s="2" t="s">
         <v>104</v>
       </c>
       <c r="J9" s="2" t="s">
@@ -3563,25 +3569,25 @@
       <c r="L9" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="M9" s="1" t="s">
+      <c r="M9" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="N9" s="1" t="s">
+      <c r="N9" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="O9" s="1">
+      <c r="O9" s="2">
         <v>145</v>
       </c>
-      <c r="P9" s="1" t="s">
+      <c r="P9" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="Q9" s="1" t="s">
+      <c r="Q9" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="R9" s="1">
+      <c r="R9" s="2">
         <v>13940123317</v>
       </c>
-      <c r="S9" s="1" t="s">
+      <c r="S9" s="2" t="s">
         <v>108</v>
       </c>
       <c r="Y9" s="3" t="s">
@@ -3607,28 +3613,28 @@
       </c>
     </row>
     <row r="10" ht="49.95" customHeight="1" spans="2:32">
-      <c r="B10" s="1">
+      <c r="B10" s="2">
         <v>139</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D10" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="E10" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="F10" s="1" t="s">
+      <c r="F10" s="2" t="s">
         <v>113</v>
       </c>
       <c r="G10" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="H10" s="1" t="s">
+      <c r="H10" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="I10" s="1" t="s">
+      <c r="I10" s="2" t="s">
         <v>115</v>
       </c>
       <c r="J10" s="2" t="s">
@@ -3640,22 +3646,23 @@
       <c r="L10" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="M10" s="1" t="s">
+      <c r="M10" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="N10" s="1" t="s">
+      <c r="N10" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="O10" s="1">
+      <c r="O10" s="2">
         <v>278</v>
       </c>
-      <c r="P10" s="1" t="s">
+      <c r="P10" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="R10" s="1">
+      <c r="Q10" s="2"/>
+      <c r="R10" s="2">
         <v>2489863466</v>
       </c>
-      <c r="S10" s="1" t="s">
+      <c r="S10" s="2" t="s">
         <v>119</v>
       </c>
       <c r="Y10" s="3" t="s">
@@ -3681,28 +3688,28 @@
       </c>
     </row>
     <row r="11" ht="49.95" customHeight="1" spans="2:32">
-      <c r="B11" s="1">
+      <c r="B11" s="2">
         <v>1603</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C11" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="D11" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="E11" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="F11" s="1" t="s">
+      <c r="F11" s="2" t="s">
         <v>124</v>
       </c>
       <c r="G11" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="H11" s="1" t="s">
+      <c r="H11" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="I11" s="1" t="s">
+      <c r="I11" s="2" t="s">
         <v>127</v>
       </c>
       <c r="J11" s="2" t="s">
@@ -3714,22 +3721,23 @@
       <c r="L11" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="M11" s="1" t="s">
+      <c r="M11" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="N11" s="1" t="s">
+      <c r="N11" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="P11" s="1" t="s">
+      <c r="O11" s="2"/>
+      <c r="P11" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="Q11" s="1" t="s">
+      <c r="Q11" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="R11" s="1">
+      <c r="R11" s="2">
         <v>25715018</v>
       </c>
-      <c r="S11" s="1" t="s">
+      <c r="S11" s="2" t="s">
         <v>133</v>
       </c>
       <c r="X11" s="3" t="s">
@@ -3758,28 +3766,28 @@
       </c>
     </row>
     <row r="12" ht="49.95" customHeight="1" spans="2:32">
-      <c r="B12" s="1">
+      <c r="B12" s="2">
         <v>1093</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C12" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="D12" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="E12" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="F12" s="1" t="s">
+      <c r="F12" s="2" t="s">
         <v>142</v>
       </c>
       <c r="G12" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="H12" s="1" t="s">
+      <c r="H12" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="I12" s="1" t="s">
+      <c r="I12" s="2" t="s">
         <v>144</v>
       </c>
       <c r="J12" s="2" t="s">
@@ -3791,18 +3799,21 @@
       <c r="L12" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="M12" s="1" t="s">
+      <c r="M12" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="N12" s="1" t="s">
+      <c r="N12" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="P12" s="1" t="s">
+      <c r="O12" s="2"/>
+      <c r="P12" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="R12" s="1" t="s">
+      <c r="Q12" s="2"/>
+      <c r="R12" s="2" t="s">
         <v>149</v>
       </c>
+      <c r="S12" s="2"/>
       <c r="Y12" s="3" t="s">
         <v>15</v>
       </c>
@@ -3826,28 +3837,28 @@
       </c>
     </row>
     <row r="13" ht="49.95" customHeight="1" spans="2:32">
-      <c r="B13" s="1">
+      <c r="B13" s="2">
         <v>1606</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C13" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D13" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="E13" s="1" t="s">
+      <c r="E13" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="F13" s="1" t="s">
+      <c r="F13" s="2" t="s">
         <v>154</v>
       </c>
       <c r="G13" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="H13" s="1" t="s">
+      <c r="H13" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="I13" s="1" t="s">
+      <c r="I13" s="2" t="s">
         <v>156</v>
       </c>
       <c r="J13" s="2" t="s">
@@ -3859,25 +3870,25 @@
       <c r="L13" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="M13" s="1" t="s">
+      <c r="M13" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="N13" s="1" t="s">
+      <c r="N13" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="O13" s="1">
+      <c r="O13" s="2">
         <v>23</v>
       </c>
-      <c r="P13" s="1" t="s">
+      <c r="P13" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="Q13" s="1" t="s">
+      <c r="Q13" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="R13" s="1">
+      <c r="R13" s="2">
         <v>15840235062</v>
       </c>
-      <c r="S13" s="1" t="s">
+      <c r="S13" s="2" t="s">
         <v>160</v>
       </c>
       <c r="Y13" s="3" t="s">
@@ -3903,28 +3914,28 @@
       </c>
     </row>
     <row r="14" ht="49.95" customHeight="1" spans="2:32">
-      <c r="B14" s="1">
+      <c r="B14" s="2">
         <v>150</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C14" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="D14" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="E14" s="1" t="s">
+      <c r="E14" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="F14" s="1" t="s">
+      <c r="F14" s="2" t="s">
         <v>165</v>
       </c>
       <c r="G14" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="H14" s="1" t="s">
+      <c r="H14" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="I14" s="1" t="s">
+      <c r="I14" s="2" t="s">
         <v>167</v>
       </c>
       <c r="J14" s="2" t="s">
@@ -3936,22 +3947,23 @@
       <c r="L14" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="M14" s="1" t="s">
+      <c r="M14" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="N14" s="1" t="s">
+      <c r="N14" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="O14" s="1">
+      <c r="O14" s="2">
         <v>78</v>
       </c>
-      <c r="P14" s="1" t="s">
+      <c r="P14" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="R14" s="1" t="s">
+      <c r="Q14" s="2"/>
+      <c r="R14" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="S14" s="1" t="s">
+      <c r="S14" s="2" t="s">
         <v>172</v>
       </c>
       <c r="Y14" s="3" t="s">
@@ -3977,28 +3989,28 @@
       </c>
     </row>
     <row r="15" ht="49.95" customHeight="1" spans="2:32">
-      <c r="B15" s="1">
+      <c r="B15" s="2">
         <v>1618</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C15" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="D15" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="E15" s="1" t="s">
+      <c r="E15" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="F15" s="1" t="s">
+      <c r="F15" s="2" t="s">
         <v>177</v>
       </c>
       <c r="G15" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="H15" s="1" t="s">
+      <c r="H15" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="I15" s="1" t="s">
+      <c r="I15" s="2" t="s">
         <v>179</v>
       </c>
       <c r="J15" s="2" t="s">
@@ -4010,25 +4022,25 @@
       <c r="L15" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="M15" s="1" t="s">
+      <c r="M15" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="N15" s="1" t="s">
+      <c r="N15" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="O15" s="1">
+      <c r="O15" s="2">
         <v>210</v>
       </c>
-      <c r="P15" s="1" t="s">
+      <c r="P15" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="Q15" s="1" t="s">
+      <c r="Q15" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="R15" s="1" t="s">
+      <c r="R15" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="S15" s="1" t="s">
+      <c r="S15" s="2" t="s">
         <v>183</v>
       </c>
       <c r="Y15" s="3" t="s">
@@ -4054,28 +4066,28 @@
       </c>
     </row>
     <row r="16" ht="49.95" customHeight="1" spans="2:32">
-      <c r="B16" s="1">
+      <c r="B16" s="2">
         <v>1112</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C16" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="D16" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="E16" s="1" t="s">
+      <c r="E16" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="F16" s="1" t="s">
+      <c r="F16" s="2" t="s">
         <v>113</v>
       </c>
       <c r="G16" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="H16" s="1" t="s">
+      <c r="H16" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="I16" s="1" t="s">
+      <c r="I16" s="2" t="s">
         <v>191</v>
       </c>
       <c r="J16" s="2" t="s">
@@ -4087,21 +4099,23 @@
       <c r="L16" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="M16" s="1" t="s">
+      <c r="M16" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="N16" s="1" t="s">
+      <c r="N16" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="P16" s="1" t="s">
+      <c r="O16" s="2"/>
+      <c r="P16" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="Q16" s="1" t="s">
+      <c r="Q16" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="R16" s="1">
+      <c r="R16" s="2">
         <v>13998369970</v>
       </c>
+      <c r="S16" s="2"/>
       <c r="Y16" s="3" t="s">
         <v>15</v>
       </c>
@@ -4125,28 +4139,28 @@
       </c>
     </row>
     <row r="17" ht="49.95" customHeight="1" spans="2:32">
-      <c r="B17" s="1">
+      <c r="B17" s="2">
         <v>1091</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C17" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="D17" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="E17" s="1" t="s">
+      <c r="E17" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="F17" s="1" t="s">
+      <c r="F17" s="2" t="s">
         <v>199</v>
       </c>
       <c r="G17" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="H17" s="1" t="s">
+      <c r="H17" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="I17" s="1" t="s">
+      <c r="I17" s="2" t="s">
         <v>201</v>
       </c>
       <c r="J17" s="2" t="s">
@@ -4158,25 +4172,25 @@
       <c r="L17" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="M17" s="1" t="s">
+      <c r="M17" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="N17" s="1" t="s">
+      <c r="N17" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="O17" s="1">
+      <c r="O17" s="2">
         <v>23</v>
       </c>
-      <c r="P17" s="1" t="s">
+      <c r="P17" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="Q17" s="1" t="s">
+      <c r="Q17" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="R17" s="1">
+      <c r="R17" s="2">
         <v>13840572607</v>
       </c>
-      <c r="S17" s="1" t="s">
+      <c r="S17" s="2" t="s">
         <v>205</v>
       </c>
       <c r="Y17" s="3" t="s">
@@ -4202,25 +4216,26 @@
       </c>
     </row>
     <row r="18" ht="49.95" customHeight="1" spans="2:32">
-      <c r="B18" s="1">
+      <c r="B18" s="2">
         <v>1097</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="C18" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="D18" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="E18" s="1" t="s">
+      <c r="E18" s="2" t="s">
         <v>189</v>
       </c>
+      <c r="F18" s="2"/>
       <c r="G18" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="H18" s="1" t="s">
+      <c r="H18" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="I18" s="1" t="s">
+      <c r="I18" s="2" t="s">
         <v>210</v>
       </c>
       <c r="J18" s="2" t="s">
@@ -4232,21 +4247,23 @@
       <c r="L18" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="M18" s="1" t="s">
+      <c r="M18" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="N18" s="1" t="s">
+      <c r="N18" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="P18" s="1" t="s">
+      <c r="O18" s="2"/>
+      <c r="P18" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="Q18" s="1" t="s">
+      <c r="Q18" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="R18" s="1">
+      <c r="R18" s="2">
         <v>88085382</v>
       </c>
+      <c r="S18" s="2"/>
       <c r="Y18" s="3" t="s">
         <v>15</v>
       </c>
@@ -4270,28 +4287,28 @@
       </c>
     </row>
     <row r="19" ht="49.95" customHeight="1" spans="2:32">
-      <c r="B19" s="1">
+      <c r="B19" s="2">
         <v>140</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="C19" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="D19" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="E19" s="1" t="s">
+      <c r="E19" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="F19" s="1" t="s">
+      <c r="F19" s="2" t="s">
         <v>23</v>
       </c>
       <c r="G19" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="H19" s="1" t="s">
+      <c r="H19" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="I19" s="1" t="s">
+      <c r="I19" s="2" t="s">
         <v>218</v>
       </c>
       <c r="J19" s="2" t="s">
@@ -4303,22 +4320,23 @@
       <c r="L19" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="M19" s="1" t="s">
+      <c r="M19" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="N19" s="1" t="s">
+      <c r="N19" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="O19" s="1">
+      <c r="O19" s="2">
         <v>167</v>
       </c>
-      <c r="P19" s="1" t="s">
+      <c r="P19" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="R19" s="1">
+      <c r="Q19" s="2"/>
+      <c r="R19" s="2">
         <v>89705007</v>
       </c>
-      <c r="S19" s="1" t="s">
+      <c r="S19" s="2" t="s">
         <v>221</v>
       </c>
       <c r="Y19" s="3" t="s">
@@ -4344,28 +4362,28 @@
       </c>
     </row>
     <row r="20" ht="49.95" customHeight="1" spans="2:32">
-      <c r="B20" s="1">
+      <c r="B20" s="2">
         <v>1622</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="C20" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="D20" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="E20" s="1" t="s">
+      <c r="E20" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="F20" s="1" t="s">
+      <c r="F20" s="2" t="s">
         <v>226</v>
       </c>
       <c r="G20" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="H20" s="1" t="s">
+      <c r="H20" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="I20" s="1" t="s">
+      <c r="I20" s="2" t="s">
         <v>228</v>
       </c>
       <c r="J20" s="2" t="s">
@@ -4377,25 +4395,25 @@
       <c r="L20" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="M20" s="1" t="s">
+      <c r="M20" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="N20" s="1" t="s">
+      <c r="N20" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="O20" s="1">
+      <c r="O20" s="2">
         <v>87</v>
       </c>
-      <c r="P20" s="1" t="s">
+      <c r="P20" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="Q20" s="1" t="s">
+      <c r="Q20" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="R20" s="1">
+      <c r="R20" s="2">
         <v>89869180</v>
       </c>
-      <c r="S20" s="1" t="s">
+      <c r="S20" s="2" t="s">
         <v>230</v>
       </c>
       <c r="Y20" s="3" t="s">
@@ -4421,28 +4439,28 @@
       </c>
     </row>
     <row r="21" ht="49.95" customHeight="1" spans="2:32">
-      <c r="B21" s="1">
+      <c r="B21" s="2">
         <v>1630</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="C21" s="2" t="s">
         <v>234</v>
       </c>
-      <c r="D21" s="1" t="s">
+      <c r="D21" s="2" t="s">
         <v>235</v>
       </c>
-      <c r="E21" s="1" t="s">
+      <c r="E21" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="F21" s="1" t="s">
+      <c r="F21" s="2" t="s">
         <v>226</v>
       </c>
       <c r="G21" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="H21" s="1" t="s">
+      <c r="H21" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="I21" s="1" t="s">
+      <c r="I21" s="2" t="s">
         <v>238</v>
       </c>
       <c r="J21" s="2" t="s">
@@ -4454,25 +4472,25 @@
       <c r="L21" s="2" t="s">
         <v>241</v>
       </c>
-      <c r="M21" s="1" t="s">
+      <c r="M21" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="N21" s="1" t="s">
+      <c r="N21" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="O21" s="1">
+      <c r="O21" s="2">
         <v>640</v>
       </c>
-      <c r="P21" s="1" t="s">
+      <c r="P21" s="2" t="s">
         <v>235</v>
       </c>
-      <c r="Q21" s="1" t="s">
+      <c r="Q21" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="R21" s="1">
+      <c r="R21" s="2">
         <v>22939195</v>
       </c>
-      <c r="S21" s="1" t="s">
+      <c r="S21" s="2" t="s">
         <v>242</v>
       </c>
       <c r="X21" s="3" t="s">
@@ -4501,28 +4519,28 @@
       </c>
     </row>
     <row r="22" ht="49.95" customHeight="1" spans="2:32">
-      <c r="B22" s="1">
+      <c r="B22" s="2">
         <v>153</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="C22" s="2" t="s">
         <v>247</v>
       </c>
-      <c r="D22" s="1" t="s">
+      <c r="D22" s="2" t="s">
         <v>248</v>
       </c>
-      <c r="E22" s="1" t="s">
+      <c r="E22" s="2" t="s">
         <v>249</v>
       </c>
-      <c r="F22" s="1" t="s">
+      <c r="F22" s="2" t="s">
         <v>250</v>
       </c>
       <c r="G22" s="2" t="s">
         <v>251</v>
       </c>
-      <c r="H22" s="1" t="s">
+      <c r="H22" s="2" t="s">
         <v>252</v>
       </c>
-      <c r="I22" s="1" t="s">
+      <c r="I22" s="2" t="s">
         <v>252</v>
       </c>
       <c r="J22" s="2" t="s">
@@ -4534,21 +4552,23 @@
       <c r="L22" s="2" t="s">
         <v>254</v>
       </c>
-      <c r="M22" s="1" t="s">
+      <c r="M22" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="N22" s="1" t="s">
+      <c r="N22" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="O22" s="1">
+      <c r="O22" s="2">
         <v>123</v>
       </c>
-      <c r="P22" s="1" t="s">
+      <c r="P22" s="2" t="s">
         <v>248</v>
       </c>
-      <c r="R22" s="1">
+      <c r="Q22" s="2"/>
+      <c r="R22" s="2">
         <v>2489703655</v>
       </c>
+      <c r="S22" s="2"/>
       <c r="Y22" s="3" t="s">
         <v>15</v>
       </c>
@@ -4572,28 +4592,28 @@
       </c>
     </row>
     <row r="23" ht="49.95" customHeight="1" spans="2:32">
-      <c r="B23" s="1">
+      <c r="B23" s="2">
         <v>164</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="C23" s="2" t="s">
         <v>256</v>
       </c>
-      <c r="D23" s="1" t="s">
+      <c r="D23" s="2" t="s">
         <v>257</v>
       </c>
-      <c r="E23" s="1" t="s">
+      <c r="E23" s="2" t="s">
         <v>258</v>
       </c>
-      <c r="F23" s="1" t="s">
+      <c r="F23" s="2" t="s">
         <v>226</v>
       </c>
       <c r="G23" s="2" t="s">
         <v>259</v>
       </c>
-      <c r="H23" s="1" t="s">
+      <c r="H23" s="2" t="s">
         <v>260</v>
       </c>
-      <c r="I23" s="1" t="s">
+      <c r="I23" s="2" t="s">
         <v>260</v>
       </c>
       <c r="J23" s="2" t="s">
@@ -4605,22 +4625,23 @@
       <c r="L23" s="2" t="s">
         <v>263</v>
       </c>
-      <c r="M23" s="1" t="s">
+      <c r="M23" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="N23" s="1" t="s">
+      <c r="N23" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="O23" s="1">
+      <c r="O23" s="2">
         <v>567</v>
       </c>
-      <c r="P23" s="1" t="s">
+      <c r="P23" s="2" t="s">
         <v>257</v>
       </c>
-      <c r="R23" s="1">
+      <c r="Q23" s="2"/>
+      <c r="R23" s="2">
         <v>22839911</v>
       </c>
-      <c r="S23" s="1" t="s">
+      <c r="S23" s="2" t="s">
         <v>264</v>
       </c>
       <c r="Y23" s="3" t="s">
@@ -4646,28 +4667,28 @@
       </c>
     </row>
     <row r="24" ht="49.95" customHeight="1" spans="2:32">
-      <c r="B24" s="1">
+      <c r="B24" s="2">
         <v>1117</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="C24" s="2" t="s">
         <v>266</v>
       </c>
-      <c r="D24" s="1" t="s">
+      <c r="D24" s="2" t="s">
         <v>267</v>
       </c>
-      <c r="E24" s="1" t="s">
+      <c r="E24" s="2" t="s">
         <v>268</v>
       </c>
-      <c r="F24" s="1" t="s">
+      <c r="F24" s="2" t="s">
         <v>154</v>
       </c>
       <c r="G24" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="H24" s="1" t="s">
+      <c r="H24" s="2" t="s">
         <v>270</v>
       </c>
-      <c r="I24" s="1" t="s">
+      <c r="I24" s="2" t="s">
         <v>270</v>
       </c>
       <c r="J24" s="2" t="s">
@@ -4679,25 +4700,25 @@
       <c r="L24" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="M24" s="1" t="s">
+      <c r="M24" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="N24" s="1" t="s">
+      <c r="N24" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="O24" s="1">
-        <v>18</v>
-      </c>
-      <c r="P24" s="1" t="s">
+      <c r="O24" s="2">
+        <v>18</v>
+      </c>
+      <c r="P24" s="2" t="s">
         <v>267</v>
       </c>
-      <c r="Q24" s="1" t="s">
+      <c r="Q24" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="R24" s="1">
+      <c r="R24" s="2">
         <v>13609817380</v>
       </c>
-      <c r="S24" s="1" t="s">
+      <c r="S24" s="2" t="s">
         <v>273</v>
       </c>
       <c r="Y24" s="3" t="s">
@@ -4723,28 +4744,28 @@
       </c>
     </row>
     <row r="25" ht="49.95" customHeight="1" spans="2:32">
-      <c r="B25" s="1">
+      <c r="B25" s="2">
         <v>1604</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="C25" s="2" t="s">
         <v>275</v>
       </c>
-      <c r="D25" s="1" t="s">
+      <c r="D25" s="2" t="s">
         <v>276</v>
       </c>
-      <c r="E25" s="1" t="s">
+      <c r="E25" s="2" t="s">
         <v>277</v>
       </c>
-      <c r="F25" s="1" t="s">
+      <c r="F25" s="2" t="s">
         <v>199</v>
       </c>
       <c r="G25" s="2" t="s">
         <v>278</v>
       </c>
-      <c r="H25" s="1" t="s">
+      <c r="H25" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="I25" s="1" t="s">
+      <c r="I25" s="2" t="s">
         <v>279</v>
       </c>
       <c r="J25" s="2" t="s">
@@ -4756,22 +4777,23 @@
       <c r="L25" s="2" t="s">
         <v>282</v>
       </c>
-      <c r="M25" s="1" t="s">
+      <c r="M25" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="N25" s="1" t="s">
+      <c r="N25" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="P25" s="1" t="s">
+      <c r="O25" s="2"/>
+      <c r="P25" s="2" t="s">
         <v>276</v>
       </c>
-      <c r="Q25" s="1" t="s">
+      <c r="Q25" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="R25" s="1">
+      <c r="R25" s="2">
         <v>25846354</v>
       </c>
-      <c r="S25" s="1" t="s">
+      <c r="S25" s="2" t="s">
         <v>283</v>
       </c>
       <c r="Y25" s="3" t="s">
@@ -4797,28 +4819,28 @@
       </c>
     </row>
     <row r="26" ht="49.95" customHeight="1" spans="2:32">
-      <c r="B26" s="1">
+      <c r="B26" s="2">
         <v>149</v>
       </c>
-      <c r="C26" s="1" t="s">
+      <c r="C26" s="2" t="s">
         <v>286</v>
       </c>
-      <c r="D26" s="1" t="s">
+      <c r="D26" s="2" t="s">
         <v>287</v>
       </c>
-      <c r="E26" s="1" t="s">
+      <c r="E26" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="F26" s="1" t="s">
+      <c r="F26" s="2" t="s">
         <v>288</v>
       </c>
       <c r="G26" s="2" t="s">
         <v>289</v>
       </c>
-      <c r="H26" s="1" t="s">
+      <c r="H26" s="2" t="s">
         <v>290</v>
       </c>
-      <c r="I26" s="1" t="s">
+      <c r="I26" s="2" t="s">
         <v>290</v>
       </c>
       <c r="J26" s="2" t="s">
@@ -4830,18 +4852,21 @@
       <c r="L26" s="2" t="s">
         <v>293</v>
       </c>
-      <c r="M26" s="1" t="s">
+      <c r="M26" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="N26" s="1" t="s">
+      <c r="N26" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="P26" s="1" t="s">
+      <c r="O26" s="2"/>
+      <c r="P26" s="2" t="s">
         <v>287</v>
       </c>
-      <c r="R26" s="1" t="s">
+      <c r="Q26" s="2"/>
+      <c r="R26" s="2" t="s">
         <v>294</v>
       </c>
+      <c r="S26" s="2"/>
       <c r="Y26" s="3" t="s">
         <v>15</v>
       </c>
@@ -4865,28 +4890,28 @@
       </c>
     </row>
     <row r="27" ht="49.95" customHeight="1" spans="2:32">
-      <c r="B27" s="1">
+      <c r="B27" s="2">
         <v>1102</v>
       </c>
-      <c r="C27" s="1" t="s">
+      <c r="C27" s="2" t="s">
         <v>296</v>
       </c>
-      <c r="D27" s="1" t="s">
+      <c r="D27" s="2" t="s">
         <v>297</v>
       </c>
-      <c r="E27" s="1" t="s">
+      <c r="E27" s="2" t="s">
         <v>298</v>
       </c>
-      <c r="F27" s="1" t="s">
+      <c r="F27" s="2" t="s">
         <v>80</v>
       </c>
       <c r="G27" s="2" t="s">
         <v>299</v>
       </c>
-      <c r="H27" s="1" t="s">
+      <c r="H27" s="2" t="s">
         <v>300</v>
       </c>
-      <c r="I27" s="1" t="s">
+      <c r="I27" s="2" t="s">
         <v>300</v>
       </c>
       <c r="J27" s="2" t="s">
@@ -4898,24 +4923,25 @@
       <c r="L27" s="2" t="s">
         <v>303</v>
       </c>
-      <c r="M27" s="1" t="s">
+      <c r="M27" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="N27" s="1" t="s">
+      <c r="N27" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="O27" s="1">
+      <c r="O27" s="2">
         <v>23</v>
       </c>
-      <c r="P27" s="1" t="s">
+      <c r="P27" s="2" t="s">
         <v>297</v>
       </c>
-      <c r="Q27" s="1" t="s">
+      <c r="Q27" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="R27" s="1">
+      <c r="R27" s="2">
         <v>31621907</v>
       </c>
+      <c r="S27" s="2"/>
       <c r="Y27" s="3" t="s">
         <v>15</v>
       </c>
@@ -4939,28 +4965,28 @@
       </c>
     </row>
     <row r="28" ht="49.95" customHeight="1" spans="2:32">
-      <c r="B28" s="1">
+      <c r="B28" s="2">
         <v>156</v>
       </c>
-      <c r="C28" s="1" t="s">
+      <c r="C28" s="2" t="s">
         <v>305</v>
       </c>
-      <c r="D28" s="1" t="s">
+      <c r="D28" s="2" t="s">
         <v>306</v>
       </c>
-      <c r="E28" s="1" t="s">
+      <c r="E28" s="2" t="s">
         <v>307</v>
       </c>
-      <c r="F28" s="1" t="s">
+      <c r="F28" s="2" t="s">
         <v>308</v>
       </c>
       <c r="G28" s="2" t="s">
         <v>309</v>
       </c>
-      <c r="H28" s="1" t="s">
+      <c r="H28" s="2" t="s">
         <v>310</v>
       </c>
-      <c r="I28" s="1" t="s">
+      <c r="I28" s="2" t="s">
         <v>310</v>
       </c>
       <c r="J28" s="2" t="s">
@@ -4972,22 +4998,23 @@
       <c r="L28" s="2" t="s">
         <v>312</v>
       </c>
-      <c r="M28" s="1" t="s">
+      <c r="M28" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="N28" s="1" t="s">
+      <c r="N28" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="O28" s="1">
+      <c r="O28" s="2">
         <v>345</v>
       </c>
-      <c r="P28" s="1" t="s">
+      <c r="P28" s="2" t="s">
         <v>306</v>
       </c>
-      <c r="R28" s="1">
+      <c r="Q28" s="2"/>
+      <c r="R28" s="2">
         <v>88921589</v>
       </c>
-      <c r="S28" s="1" t="s">
+      <c r="S28" s="2" t="s">
         <v>313</v>
       </c>
       <c r="Y28" s="3" t="s">
@@ -5013,28 +5040,28 @@
       </c>
     </row>
     <row r="29" ht="49.95" customHeight="1" spans="2:32">
-      <c r="B29" s="1">
+      <c r="B29" s="2">
         <v>147</v>
       </c>
-      <c r="C29" s="1" t="s">
+      <c r="C29" s="2" t="s">
         <v>315</v>
       </c>
-      <c r="D29" s="1" t="s">
+      <c r="D29" s="2" t="s">
         <v>316</v>
       </c>
-      <c r="E29" s="1" t="s">
+      <c r="E29" s="2" t="s">
         <v>317</v>
       </c>
-      <c r="F29" s="1" t="s">
+      <c r="F29" s="2" t="s">
         <v>23</v>
       </c>
       <c r="G29" s="2" t="s">
         <v>318</v>
       </c>
-      <c r="H29" s="1" t="s">
+      <c r="H29" s="2" t="s">
         <v>319</v>
       </c>
-      <c r="I29" s="1" t="s">
+      <c r="I29" s="2" t="s">
         <v>319</v>
       </c>
       <c r="J29" s="2" t="s">
@@ -5046,19 +5073,21 @@
       <c r="L29" s="2" t="s">
         <v>322</v>
       </c>
-      <c r="M29" s="1" t="s">
+      <c r="M29" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="N29" s="1" t="s">
+      <c r="N29" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="P29" s="1" t="s">
+      <c r="O29" s="2"/>
+      <c r="P29" s="2" t="s">
         <v>316</v>
       </c>
-      <c r="R29" s="1">
+      <c r="Q29" s="2"/>
+      <c r="R29" s="2">
         <v>31827171</v>
       </c>
-      <c r="S29" s="1" t="s">
+      <c r="S29" s="2" t="s">
         <v>323</v>
       </c>
       <c r="Y29" s="3" t="s">
@@ -5084,25 +5113,26 @@
       </c>
     </row>
     <row r="30" ht="49.95" customHeight="1" spans="2:32">
-      <c r="B30" s="1">
+      <c r="B30" s="2">
         <v>1116</v>
       </c>
-      <c r="C30" s="1" t="s">
+      <c r="C30" s="2" t="s">
         <v>325</v>
       </c>
-      <c r="D30" s="1" t="s">
+      <c r="D30" s="2" t="s">
         <v>326</v>
       </c>
-      <c r="E30" s="1" t="s">
+      <c r="E30" s="2" t="s">
         <v>46</v>
       </c>
+      <c r="F30" s="2"/>
       <c r="G30" s="2" t="s">
         <v>327</v>
       </c>
-      <c r="H30" s="1" t="s">
+      <c r="H30" s="2" t="s">
         <v>328</v>
       </c>
-      <c r="I30" s="1" t="s">
+      <c r="I30" s="2" t="s">
         <v>328</v>
       </c>
       <c r="J30" s="2" t="s">
@@ -5114,25 +5144,25 @@
       <c r="L30" s="2" t="s">
         <v>331</v>
       </c>
-      <c r="M30" s="1" t="s">
+      <c r="M30" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="N30" s="1" t="s">
+      <c r="N30" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="O30" s="1">
+      <c r="O30" s="2">
         <v>36</v>
       </c>
-      <c r="P30" s="1" t="s">
+      <c r="P30" s="2" t="s">
         <v>326</v>
       </c>
-      <c r="Q30" s="1" t="s">
+      <c r="Q30" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="R30" s="1">
+      <c r="R30" s="2">
         <v>86160070</v>
       </c>
-      <c r="S30" s="1" t="s">
+      <c r="S30" s="2" t="s">
         <v>332</v>
       </c>
       <c r="Y30" s="3" t="s">
@@ -5158,28 +5188,28 @@
       </c>
     </row>
     <row r="31" ht="49.95" customHeight="1" spans="2:32">
-      <c r="B31" s="1">
+      <c r="B31" s="2">
         <v>141</v>
       </c>
-      <c r="C31" s="1" t="s">
+      <c r="C31" s="2" t="s">
         <v>334</v>
       </c>
-      <c r="D31" s="1" t="s">
+      <c r="D31" s="2" t="s">
         <v>335</v>
       </c>
-      <c r="E31" s="1" t="s">
+      <c r="E31" s="2" t="s">
         <v>336</v>
       </c>
-      <c r="F31" s="1" t="s">
+      <c r="F31" s="2" t="s">
         <v>337</v>
       </c>
       <c r="G31" s="2" t="s">
         <v>338</v>
       </c>
-      <c r="H31" s="1" t="s">
+      <c r="H31" s="2" t="s">
         <v>339</v>
       </c>
-      <c r="I31" s="1" t="s">
+      <c r="I31" s="2" t="s">
         <v>339</v>
       </c>
       <c r="J31" s="2" t="s">
@@ -5191,22 +5221,23 @@
       <c r="L31" s="2" t="s">
         <v>342</v>
       </c>
-      <c r="M31" s="1" t="s">
+      <c r="M31" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="N31" s="1" t="s">
+      <c r="N31" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="O31" s="1">
+      <c r="O31" s="2">
         <v>134</v>
       </c>
-      <c r="P31" s="1" t="s">
+      <c r="P31" s="2" t="s">
         <v>335</v>
       </c>
-      <c r="R31" s="1">
+      <c r="Q31" s="2"/>
+      <c r="R31" s="2">
         <v>8801929</v>
       </c>
-      <c r="S31" s="1" t="s">
+      <c r="S31" s="2" t="s">
         <v>343</v>
       </c>
       <c r="Y31" s="3" t="s">
@@ -5232,28 +5263,28 @@
       </c>
     </row>
     <row r="32" ht="49.95" customHeight="1" spans="2:32">
-      <c r="B32" s="1">
+      <c r="B32" s="2">
         <v>1599</v>
       </c>
-      <c r="C32" s="1" t="s">
+      <c r="C32" s="2" t="s">
         <v>345</v>
       </c>
-      <c r="D32" s="1" t="s">
+      <c r="D32" s="2" t="s">
         <v>346</v>
       </c>
-      <c r="E32" s="1" t="s">
+      <c r="E32" s="2" t="s">
         <v>347</v>
       </c>
-      <c r="F32" s="1" t="s">
+      <c r="F32" s="2" t="s">
         <v>348</v>
       </c>
       <c r="G32" s="2" t="s">
         <v>349</v>
       </c>
-      <c r="H32" s="1" t="s">
+      <c r="H32" s="2" t="s">
         <v>350</v>
       </c>
-      <c r="I32" s="1" t="s">
+      <c r="I32" s="2" t="s">
         <v>350</v>
       </c>
       <c r="J32" s="2" t="s">
@@ -5265,25 +5296,25 @@
       <c r="L32" s="2" t="s">
         <v>352</v>
       </c>
-      <c r="M32" s="1" t="s">
+      <c r="M32" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="N32" s="1" t="s">
+      <c r="N32" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="O32" s="1">
+      <c r="O32" s="2">
         <v>87</v>
       </c>
-      <c r="P32" s="1" t="s">
+      <c r="P32" s="2" t="s">
         <v>346</v>
       </c>
-      <c r="Q32" s="1" t="s">
+      <c r="Q32" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="R32" s="1">
+      <c r="R32" s="2">
         <v>89738168</v>
       </c>
-      <c r="S32" s="1" t="s">
+      <c r="S32" s="2" t="s">
         <v>353</v>
       </c>
       <c r="Y32" s="3" t="s">
@@ -5309,28 +5340,28 @@
       </c>
     </row>
     <row r="33" ht="49.95" customHeight="1" spans="2:32">
-      <c r="B33" s="1">
+      <c r="B33" s="2">
         <v>1608</v>
       </c>
-      <c r="C33" s="1" t="s">
+      <c r="C33" s="2" t="s">
         <v>356</v>
       </c>
-      <c r="D33" s="1" t="s">
+      <c r="D33" s="2" t="s">
         <v>357</v>
       </c>
-      <c r="E33" s="1" t="s">
+      <c r="E33" s="2" t="s">
         <v>358</v>
       </c>
-      <c r="F33" s="1" t="s">
+      <c r="F33" s="2" t="s">
         <v>359</v>
       </c>
       <c r="G33" s="2" t="s">
         <v>360</v>
       </c>
-      <c r="H33" s="1" t="s">
+      <c r="H33" s="2" t="s">
         <v>361</v>
       </c>
-      <c r="I33" s="1" t="s">
+      <c r="I33" s="2" t="s">
         <v>361</v>
       </c>
       <c r="J33" s="2" t="s">
@@ -5342,25 +5373,25 @@
       <c r="L33" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="M33" s="1" t="s">
+      <c r="M33" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="N33" s="1" t="s">
+      <c r="N33" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="O33" s="1">
+      <c r="O33" s="2">
         <v>1280</v>
       </c>
-      <c r="P33" s="1" t="s">
+      <c r="P33" s="2" t="s">
         <v>365</v>
       </c>
-      <c r="Q33" s="1" t="s">
+      <c r="Q33" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="R33" s="1" t="s">
+      <c r="R33" s="2" t="s">
         <v>366</v>
       </c>
-      <c r="S33" s="1" t="s">
+      <c r="S33" s="2" t="s">
         <v>367</v>
       </c>
       <c r="Y33" s="3" t="s">
@@ -5386,25 +5417,26 @@
       </c>
     </row>
     <row r="34" ht="49.95" customHeight="1" spans="2:32">
-      <c r="B34" s="1">
+      <c r="B34" s="2">
         <v>1598</v>
       </c>
-      <c r="C34" s="1" t="s">
+      <c r="C34" s="2" t="s">
         <v>370</v>
       </c>
-      <c r="D34" s="1" t="s">
+      <c r="D34" s="2" t="s">
         <v>371</v>
       </c>
-      <c r="E34" s="1" t="s">
+      <c r="E34" s="2" t="s">
         <v>141</v>
       </c>
+      <c r="F34" s="2"/>
       <c r="G34" s="2" t="s">
         <v>372</v>
       </c>
-      <c r="H34" s="1" t="s">
+      <c r="H34" s="2" t="s">
         <v>373</v>
       </c>
-      <c r="I34" s="1" t="s">
+      <c r="I34" s="2" t="s">
         <v>373</v>
       </c>
       <c r="J34" s="2" t="s">
@@ -5416,22 +5448,23 @@
       <c r="L34" s="2" t="s">
         <v>376</v>
       </c>
-      <c r="M34" s="1" t="s">
+      <c r="M34" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="N34" s="1" t="s">
+      <c r="N34" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="O34" s="1">
+      <c r="O34" s="2">
         <v>30</v>
       </c>
-      <c r="P34" s="1" t="s">
+      <c r="P34" s="2" t="s">
         <v>371</v>
       </c>
-      <c r="R34" s="1">
+      <c r="Q34" s="2"/>
+      <c r="R34" s="2">
         <v>89702365</v>
       </c>
-      <c r="S34" s="1" t="s">
+      <c r="S34" s="2" t="s">
         <v>377</v>
       </c>
       <c r="Y34" s="3" t="s">
@@ -5457,28 +5490,28 @@
       </c>
     </row>
     <row r="35" ht="49.95" customHeight="1" spans="2:32">
-      <c r="B35" s="1">
+      <c r="B35" s="2">
         <v>1089</v>
       </c>
-      <c r="C35" s="1" t="s">
+      <c r="C35" s="2" t="s">
         <v>380</v>
       </c>
-      <c r="D35" s="1" t="s">
+      <c r="D35" s="2" t="s">
         <v>381</v>
       </c>
-      <c r="E35" s="1" t="s">
+      <c r="E35" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="F35" s="1" t="s">
+      <c r="F35" s="2" t="s">
         <v>199</v>
       </c>
       <c r="G35" s="2" t="s">
         <v>382</v>
       </c>
-      <c r="H35" s="1" t="s">
+      <c r="H35" s="2" t="s">
         <v>383</v>
       </c>
-      <c r="I35" s="1" t="s">
+      <c r="I35" s="2" t="s">
         <v>383</v>
       </c>
       <c r="J35" s="2" t="s">
@@ -5490,24 +5523,25 @@
       <c r="L35" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="M35" s="1" t="s">
+      <c r="M35" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="N35" s="1" t="s">
+      <c r="N35" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="O35" s="1">
+      <c r="O35" s="2">
         <v>46</v>
       </c>
-      <c r="P35" s="1" t="s">
+      <c r="P35" s="2" t="s">
         <v>381</v>
       </c>
-      <c r="Q35" s="1" t="s">
+      <c r="Q35" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="R35" s="1">
+      <c r="R35" s="2">
         <v>18500970087</v>
       </c>
+      <c r="S35" s="2"/>
       <c r="Y35" s="3" t="s">
         <v>15</v>
       </c>
@@ -5531,28 +5565,28 @@
       </c>
     </row>
     <row r="36" ht="49.95" customHeight="1" spans="2:32">
-      <c r="B36" s="1">
+      <c r="B36" s="2">
         <v>1616</v>
       </c>
-      <c r="C36" s="1" t="s">
+      <c r="C36" s="2" t="s">
         <v>388</v>
       </c>
-      <c r="D36" s="1" t="s">
+      <c r="D36" s="2" t="s">
         <v>389</v>
       </c>
-      <c r="E36" s="1" t="s">
+      <c r="E36" s="2" t="s">
         <v>390</v>
       </c>
-      <c r="F36" s="1" t="s">
+      <c r="F36" s="2" t="s">
         <v>391</v>
       </c>
       <c r="G36" s="2" t="s">
         <v>392</v>
       </c>
-      <c r="H36" s="1" t="s">
+      <c r="H36" s="2" t="s">
         <v>393</v>
       </c>
-      <c r="I36" s="1" t="s">
+      <c r="I36" s="2" t="s">
         <v>393</v>
       </c>
       <c r="J36" s="2" t="s">
@@ -5564,25 +5598,25 @@
       <c r="L36" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="M36" s="1" t="s">
+      <c r="M36" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="N36" s="1" t="s">
+      <c r="N36" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="O36" s="1">
+      <c r="O36" s="2">
         <v>124</v>
       </c>
-      <c r="P36" s="1" t="s">
+      <c r="P36" s="2" t="s">
         <v>389</v>
       </c>
-      <c r="Q36" s="1" t="s">
+      <c r="Q36" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="R36" s="1" t="s">
+      <c r="R36" s="2" t="s">
         <v>396</v>
       </c>
-      <c r="S36" s="1" t="s">
+      <c r="S36" s="2" t="s">
         <v>397</v>
       </c>
       <c r="Y36" s="3" t="s">
@@ -5608,28 +5642,28 @@
       </c>
     </row>
     <row r="37" ht="49.95" customHeight="1" spans="2:32">
-      <c r="B37" s="1">
+      <c r="B37" s="2">
         <v>138</v>
       </c>
-      <c r="C37" s="1" t="s">
+      <c r="C37" s="2" t="s">
         <v>400</v>
       </c>
-      <c r="D37" s="1" t="s">
+      <c r="D37" s="2" t="s">
         <v>401</v>
       </c>
-      <c r="E37" s="1" t="s">
+      <c r="E37" s="2" t="s">
         <v>402</v>
       </c>
-      <c r="F37" s="1" t="s">
+      <c r="F37" s="2" t="s">
         <v>80</v>
       </c>
       <c r="G37" s="2" t="s">
         <v>403</v>
       </c>
-      <c r="H37" s="1" t="s">
+      <c r="H37" s="2" t="s">
         <v>404</v>
       </c>
-      <c r="I37" s="1" t="s">
+      <c r="I37" s="2" t="s">
         <v>404</v>
       </c>
       <c r="J37" s="2" t="s">
@@ -5641,19 +5675,21 @@
       <c r="L37" s="2" t="s">
         <v>407</v>
       </c>
-      <c r="M37" s="1" t="s">
+      <c r="M37" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="N37" s="1" t="s">
+      <c r="N37" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="P37" s="1" t="s">
+      <c r="O37" s="2"/>
+      <c r="P37" s="2" t="s">
         <v>401</v>
       </c>
-      <c r="R37" s="1" t="s">
+      <c r="Q37" s="2"/>
+      <c r="R37" s="2" t="s">
         <v>408</v>
       </c>
-      <c r="S37" s="1" t="s">
+      <c r="S37" s="2" t="s">
         <v>409</v>
       </c>
       <c r="Y37" s="3" t="s">
@@ -5679,28 +5715,28 @@
       </c>
     </row>
     <row r="38" ht="49.95" customHeight="1" spans="2:32">
-      <c r="B38" s="1">
+      <c r="B38" s="2">
         <v>1107</v>
       </c>
-      <c r="C38" s="1" t="s">
+      <c r="C38" s="2" t="s">
         <v>411</v>
       </c>
-      <c r="D38" s="1" t="s">
+      <c r="D38" s="2" t="s">
         <v>412</v>
       </c>
-      <c r="E38" s="1" t="s">
+      <c r="E38" s="2" t="s">
         <v>277</v>
       </c>
-      <c r="F38" s="1" t="s">
+      <c r="F38" s="2" t="s">
         <v>165</v>
       </c>
       <c r="G38" s="2" t="s">
         <v>413</v>
       </c>
-      <c r="H38" s="1" t="s">
+      <c r="H38" s="2" t="s">
         <v>414</v>
       </c>
-      <c r="I38" s="1" t="s">
+      <c r="I38" s="2" t="s">
         <v>414</v>
       </c>
       <c r="J38" s="2" t="s">
@@ -5712,18 +5748,21 @@
       <c r="L38" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="M38" s="1" t="s">
+      <c r="M38" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="N38" s="1" t="s">
+      <c r="N38" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="P38" s="1" t="s">
+      <c r="O38" s="2"/>
+      <c r="P38" s="2" t="s">
         <v>412</v>
       </c>
-      <c r="R38" s="1">
+      <c r="Q38" s="2"/>
+      <c r="R38" s="2">
         <v>13940048822</v>
       </c>
+      <c r="S38" s="2"/>
       <c r="Y38" s="3" t="s">
         <v>15</v>
       </c>
@@ -5744,28 +5783,28 @@
       </c>
     </row>
     <row r="39" ht="49.95" customHeight="1" spans="2:32">
-      <c r="B39" s="1">
+      <c r="B39" s="2">
         <v>1108</v>
       </c>
-      <c r="C39" s="1" t="s">
+      <c r="C39" s="2" t="s">
         <v>418</v>
       </c>
-      <c r="D39" s="1" t="s">
+      <c r="D39" s="2" t="s">
         <v>419</v>
       </c>
-      <c r="E39" s="1" t="s">
+      <c r="E39" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="F39" s="1" t="s">
+      <c r="F39" s="2" t="s">
         <v>47</v>
       </c>
       <c r="G39" s="2" t="s">
         <v>420</v>
       </c>
-      <c r="H39" s="1" t="s">
+      <c r="H39" s="2" t="s">
         <v>421</v>
       </c>
-      <c r="I39" s="1" t="s">
+      <c r="I39" s="2" t="s">
         <v>421</v>
       </c>
       <c r="J39" s="2" t="s">
@@ -5777,24 +5816,25 @@
       <c r="L39" s="2" t="s">
         <v>423</v>
       </c>
-      <c r="M39" s="1" t="s">
+      <c r="M39" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="N39" s="1" t="s">
+      <c r="N39" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="O39" s="1">
+      <c r="O39" s="2">
         <v>22</v>
       </c>
-      <c r="P39" s="1" t="s">
+      <c r="P39" s="2" t="s">
         <v>419</v>
       </c>
-      <c r="Q39" s="1" t="s">
+      <c r="Q39" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="R39" s="1">
+      <c r="R39" s="2">
         <v>89649929</v>
       </c>
+      <c r="S39" s="2"/>
       <c r="Y39" s="3" t="s">
         <v>15</v>
       </c>
@@ -5818,28 +5858,28 @@
       </c>
     </row>
     <row r="40" ht="49.95" customHeight="1" spans="2:32">
-      <c r="B40" s="1">
+      <c r="B40" s="2">
         <v>1610</v>
       </c>
-      <c r="C40" s="1" t="s">
+      <c r="C40" s="2" t="s">
         <v>425</v>
       </c>
-      <c r="D40" s="1" t="s">
+      <c r="D40" s="2" t="s">
         <v>426</v>
       </c>
-      <c r="E40" s="1" t="s">
+      <c r="E40" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="F40" s="1" t="s">
+      <c r="F40" s="2" t="s">
         <v>102</v>
       </c>
       <c r="G40" s="2" t="s">
         <v>427</v>
       </c>
-      <c r="H40" s="1" t="s">
+      <c r="H40" s="2" t="s">
         <v>428</v>
       </c>
-      <c r="I40" s="1" t="s">
+      <c r="I40" s="2" t="s">
         <v>428</v>
       </c>
       <c r="J40" s="2" t="s">
@@ -5851,25 +5891,25 @@
       <c r="L40" s="2" t="s">
         <v>430</v>
       </c>
-      <c r="M40" s="1" t="s">
+      <c r="M40" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="N40" s="1" t="s">
+      <c r="N40" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="O40" s="1">
-        <v>18</v>
-      </c>
-      <c r="P40" s="1" t="s">
+      <c r="O40" s="2">
+        <v>18</v>
+      </c>
+      <c r="P40" s="2" t="s">
         <v>426</v>
       </c>
-      <c r="Q40" s="1" t="s">
+      <c r="Q40" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="R40" s="1" t="s">
+      <c r="R40" s="2" t="s">
         <v>431</v>
       </c>
-      <c r="S40" s="1" t="s">
+      <c r="S40" s="2" t="s">
         <v>432</v>
       </c>
       <c r="Y40" s="3" t="s">
@@ -5895,28 +5935,28 @@
       </c>
     </row>
     <row r="41" ht="49.95" customHeight="1" spans="2:32">
-      <c r="B41" s="1">
+      <c r="B41" s="2">
         <v>1623</v>
       </c>
-      <c r="C41" s="1" t="s">
+      <c r="C41" s="2" t="s">
         <v>435</v>
       </c>
-      <c r="D41" s="1" t="s">
+      <c r="D41" s="2" t="s">
         <v>436</v>
       </c>
-      <c r="E41" s="1" t="s">
+      <c r="E41" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="F41" s="1" t="s">
+      <c r="F41" s="2" t="s">
         <v>47</v>
       </c>
       <c r="G41" s="2" t="s">
         <v>437</v>
       </c>
-      <c r="H41" s="1" t="s">
+      <c r="H41" s="2" t="s">
         <v>438</v>
       </c>
-      <c r="I41" s="1" t="s">
+      <c r="I41" s="2" t="s">
         <v>438</v>
       </c>
       <c r="J41" s="2" t="s">
@@ -5928,25 +5968,25 @@
       <c r="L41" s="2" t="s">
         <v>441</v>
       </c>
-      <c r="M41" s="1" t="s">
+      <c r="M41" s="2" t="s">
         <v>442</v>
       </c>
-      <c r="N41" s="1" t="s">
+      <c r="N41" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="O41" s="1">
+      <c r="O41" s="2">
         <v>127</v>
       </c>
-      <c r="P41" s="1" t="s">
+      <c r="P41" s="2" t="s">
         <v>436</v>
       </c>
-      <c r="Q41" s="1" t="s">
+      <c r="Q41" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="R41" s="1" t="s">
+      <c r="R41" s="2" t="s">
         <v>443</v>
       </c>
-      <c r="S41" s="1" t="s">
+      <c r="S41" s="2" t="s">
         <v>444</v>
       </c>
       <c r="Y41" s="3" t="s">
@@ -5972,28 +6012,28 @@
       </c>
     </row>
     <row r="42" ht="49.95" customHeight="1" spans="2:32">
-      <c r="B42" s="1">
+      <c r="B42" s="2">
         <v>1619</v>
       </c>
-      <c r="C42" s="1" t="s">
+      <c r="C42" s="2" t="s">
         <v>447</v>
       </c>
-      <c r="D42" s="1" t="s">
+      <c r="D42" s="2" t="s">
         <v>448</v>
       </c>
-      <c r="E42" s="1" t="s">
+      <c r="E42" s="2" t="s">
         <v>449</v>
       </c>
-      <c r="F42" s="1" t="s">
+      <c r="F42" s="2" t="s">
         <v>142</v>
       </c>
       <c r="G42" s="2" t="s">
         <v>450</v>
       </c>
-      <c r="H42" s="1" t="s">
+      <c r="H42" s="2" t="s">
         <v>451</v>
       </c>
-      <c r="I42" s="1" t="s">
+      <c r="I42" s="2" t="s">
         <v>451</v>
       </c>
       <c r="J42" s="2" t="s">
@@ -6005,25 +6045,25 @@
       <c r="L42" s="2" t="s">
         <v>454</v>
       </c>
-      <c r="M42" s="1" t="s">
+      <c r="M42" s="2" t="s">
         <v>455</v>
       </c>
-      <c r="N42" s="1" t="s">
+      <c r="N42" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="O42" s="1">
+      <c r="O42" s="2">
         <v>100</v>
       </c>
-      <c r="P42" s="1" t="s">
+      <c r="P42" s="2" t="s">
         <v>448</v>
       </c>
-      <c r="Q42" s="1" t="s">
+      <c r="Q42" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="R42" s="1" t="s">
+      <c r="R42" s="2" t="s">
         <v>456</v>
       </c>
-      <c r="S42" s="1" t="s">
+      <c r="S42" s="2" t="s">
         <v>457</v>
       </c>
       <c r="Y42" s="3" t="s">
@@ -6049,28 +6089,28 @@
       </c>
     </row>
     <row r="43" ht="49.95" customHeight="1" spans="2:32">
-      <c r="B43" s="1">
+      <c r="B43" s="2">
         <v>169</v>
       </c>
-      <c r="C43" s="1" t="s">
+      <c r="C43" s="2" t="s">
         <v>460</v>
       </c>
-      <c r="D43" s="1" t="s">
+      <c r="D43" s="2" t="s">
         <v>461</v>
       </c>
-      <c r="E43" s="1" t="s">
+      <c r="E43" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="F43" s="1" t="s">
+      <c r="F43" s="2" t="s">
         <v>80</v>
       </c>
       <c r="G43" s="2" t="s">
         <v>462</v>
       </c>
-      <c r="H43" s="1" t="s">
+      <c r="H43" s="2" t="s">
         <v>463</v>
       </c>
-      <c r="I43" s="1" t="s">
+      <c r="I43" s="2" t="s">
         <v>463</v>
       </c>
       <c r="J43" s="2" t="s">
@@ -6082,22 +6122,23 @@
       <c r="L43" s="2" t="s">
         <v>465</v>
       </c>
-      <c r="M43" s="1" t="s">
+      <c r="M43" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="N43" s="1" t="s">
+      <c r="N43" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="O43" s="1">
+      <c r="O43" s="2">
         <v>50</v>
       </c>
-      <c r="P43" s="1" t="s">
+      <c r="P43" s="2" t="s">
         <v>461</v>
       </c>
-      <c r="R43" s="1">
+      <c r="Q43" s="2"/>
+      <c r="R43" s="2">
         <v>88423999</v>
       </c>
-      <c r="S43" s="1" t="s">
+      <c r="S43" s="2" t="s">
         <v>466</v>
       </c>
       <c r="Y43" s="3" t="s">
@@ -6123,28 +6164,28 @@
       </c>
     </row>
     <row r="44" ht="49.95" customHeight="1" spans="2:32">
-      <c r="B44" s="1">
+      <c r="B44" s="2">
         <v>1612</v>
       </c>
-      <c r="C44" s="1" t="s">
+      <c r="C44" s="2" t="s">
         <v>468</v>
       </c>
-      <c r="D44" s="1" t="s">
+      <c r="D44" s="2" t="s">
         <v>469</v>
       </c>
-      <c r="E44" s="1" t="s">
+      <c r="E44" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="F44" s="1" t="s">
+      <c r="F44" s="2" t="s">
         <v>470</v>
       </c>
       <c r="G44" s="2" t="s">
         <v>471</v>
       </c>
-      <c r="H44" s="1" t="s">
+      <c r="H44" s="2" t="s">
         <v>472</v>
       </c>
-      <c r="I44" s="1" t="s">
+      <c r="I44" s="2" t="s">
         <v>472</v>
       </c>
       <c r="J44" s="2" t="s">
@@ -6156,25 +6197,25 @@
       <c r="L44" s="2" t="s">
         <v>475</v>
       </c>
-      <c r="M44" s="1" t="s">
+      <c r="M44" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="N44" s="1" t="s">
+      <c r="N44" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="O44" s="1">
+      <c r="O44" s="2">
         <v>35</v>
       </c>
-      <c r="P44" s="1" t="s">
+      <c r="P44" s="2" t="s">
         <v>469</v>
       </c>
-      <c r="Q44" s="1" t="s">
+      <c r="Q44" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="R44" s="1">
+      <c r="R44" s="2">
         <v>13940237709</v>
       </c>
-      <c r="S44" s="1" t="s">
+      <c r="S44" s="2" t="s">
         <v>476</v>
       </c>
       <c r="Y44" s="3" t="s">
@@ -6200,25 +6241,26 @@
       </c>
     </row>
     <row r="45" ht="49.95" customHeight="1" spans="2:32">
-      <c r="B45" s="1">
+      <c r="B45" s="2">
         <v>1614</v>
       </c>
-      <c r="C45" s="1" t="s">
+      <c r="C45" s="2" t="s">
         <v>479</v>
       </c>
-      <c r="D45" s="1" t="s">
+      <c r="D45" s="2" t="s">
         <v>480</v>
       </c>
-      <c r="E45" s="1" t="s">
+      <c r="E45" s="2" t="s">
         <v>68</v>
       </c>
+      <c r="F45" s="2"/>
       <c r="G45" s="2" t="s">
         <v>481</v>
       </c>
-      <c r="H45" s="1" t="s">
+      <c r="H45" s="2" t="s">
         <v>482</v>
       </c>
-      <c r="I45" s="1" t="s">
+      <c r="I45" s="2" t="s">
         <v>482</v>
       </c>
       <c r="J45" s="2" t="s">
@@ -6230,25 +6272,25 @@
       <c r="L45" s="2" t="s">
         <v>485</v>
       </c>
-      <c r="M45" s="1" t="s">
+      <c r="M45" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="N45" s="1" t="s">
+      <c r="N45" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="O45" s="1">
+      <c r="O45" s="2">
         <v>120</v>
       </c>
-      <c r="P45" s="1" t="s">
+      <c r="P45" s="2" t="s">
         <v>480</v>
       </c>
-      <c r="Q45" s="1" t="s">
+      <c r="Q45" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="R45" s="1">
+      <c r="R45" s="2">
         <v>89622831</v>
       </c>
-      <c r="S45" s="1" t="s">
+      <c r="S45" s="2" t="s">
         <v>486</v>
       </c>
       <c r="Y45" s="3" t="s">
@@ -6274,28 +6316,28 @@
       </c>
     </row>
     <row r="46" ht="49.95" customHeight="1" spans="2:32">
-      <c r="B46" s="1">
+      <c r="B46" s="2">
         <v>1613</v>
       </c>
-      <c r="C46" s="1" t="s">
+      <c r="C46" s="2" t="s">
         <v>489</v>
       </c>
-      <c r="D46" s="1" t="s">
+      <c r="D46" s="2" t="s">
         <v>490</v>
       </c>
-      <c r="E46" s="1" t="s">
+      <c r="E46" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="F46" s="1" t="s">
+      <c r="F46" s="2" t="s">
         <v>491</v>
       </c>
       <c r="G46" s="2" t="s">
         <v>492</v>
       </c>
-      <c r="H46" s="1" t="s">
+      <c r="H46" s="2" t="s">
         <v>493</v>
       </c>
-      <c r="I46" s="1" t="s">
+      <c r="I46" s="2" t="s">
         <v>493</v>
       </c>
       <c r="J46" s="2" t="s">
@@ -6307,25 +6349,25 @@
       <c r="L46" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="M46" s="1" t="s">
+      <c r="M46" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="N46" s="1" t="s">
+      <c r="N46" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="O46" s="1">
-        <v>18</v>
-      </c>
-      <c r="P46" s="1" t="s">
+      <c r="O46" s="2">
+        <v>18</v>
+      </c>
+      <c r="P46" s="2" t="s">
         <v>490</v>
       </c>
-      <c r="Q46" s="1" t="s">
+      <c r="Q46" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="R46" s="1">
+      <c r="R46" s="2">
         <v>62600368</v>
       </c>
-      <c r="S46" s="1" t="s">
+      <c r="S46" s="2" t="s">
         <v>496</v>
       </c>
       <c r="Y46" s="3" t="s">
@@ -6351,28 +6393,28 @@
       </c>
     </row>
     <row r="47" ht="49.95" customHeight="1" spans="2:32">
-      <c r="B47" s="1">
+      <c r="B47" s="2">
         <v>1627</v>
       </c>
-      <c r="C47" s="1" t="s">
+      <c r="C47" s="2" t="s">
         <v>499</v>
       </c>
-      <c r="D47" s="1" t="s">
+      <c r="D47" s="2" t="s">
         <v>500</v>
       </c>
-      <c r="E47" s="1" t="s">
+      <c r="E47" s="2" t="s">
         <v>449</v>
       </c>
-      <c r="F47" s="1" t="s">
+      <c r="F47" s="2" t="s">
         <v>501</v>
       </c>
       <c r="G47" s="2" t="s">
         <v>502</v>
       </c>
-      <c r="H47" s="1" t="s">
+      <c r="H47" s="2" t="s">
         <v>503</v>
       </c>
-      <c r="I47" s="1" t="s">
+      <c r="I47" s="2" t="s">
         <v>503</v>
       </c>
       <c r="J47" s="2" t="s">
@@ -6384,25 +6426,25 @@
       <c r="L47" s="2" t="s">
         <v>506</v>
       </c>
-      <c r="M47" s="1" t="s">
+      <c r="M47" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="N47" s="1" t="s">
+      <c r="N47" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="O47" s="1">
+      <c r="O47" s="2">
         <v>67</v>
       </c>
-      <c r="P47" s="1" t="s">
+      <c r="P47" s="2" t="s">
         <v>500</v>
       </c>
-      <c r="Q47" s="1" t="s">
+      <c r="Q47" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="R47" s="1">
+      <c r="R47" s="2">
         <v>15040116111</v>
       </c>
-      <c r="S47" s="1" t="s">
+      <c r="S47" s="2" t="s">
         <v>507</v>
       </c>
       <c r="Y47" s="3" t="s">
@@ -6428,28 +6470,28 @@
       </c>
     </row>
     <row r="48" ht="49.95" customHeight="1" spans="2:32">
-      <c r="B48" s="1">
+      <c r="B48" s="2">
         <v>1615</v>
       </c>
-      <c r="C48" s="1" t="s">
+      <c r="C48" s="2" t="s">
         <v>510</v>
       </c>
-      <c r="D48" s="1" t="s">
+      <c r="D48" s="2" t="s">
         <v>511</v>
       </c>
-      <c r="E48" s="1" t="s">
+      <c r="E48" s="2" t="s">
         <v>512</v>
       </c>
-      <c r="F48" s="1" t="s">
+      <c r="F48" s="2" t="s">
         <v>199</v>
       </c>
       <c r="G48" s="2" t="s">
         <v>513</v>
       </c>
-      <c r="H48" s="1" t="s">
+      <c r="H48" s="2" t="s">
         <v>514</v>
       </c>
-      <c r="I48" s="1" t="s">
+      <c r="I48" s="2" t="s">
         <v>514</v>
       </c>
       <c r="J48" s="2" t="s">
@@ -6461,25 +6503,25 @@
       <c r="L48" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="M48" s="1" t="s">
+      <c r="M48" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="N48" s="1" t="s">
+      <c r="N48" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="O48" s="1">
+      <c r="O48" s="2">
         <v>125</v>
       </c>
-      <c r="P48" s="1" t="s">
+      <c r="P48" s="2" t="s">
         <v>511</v>
       </c>
-      <c r="Q48" s="1" t="s">
+      <c r="Q48" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="R48" s="1">
+      <c r="R48" s="2">
         <v>15140083651</v>
       </c>
-      <c r="S48" s="1" t="s">
+      <c r="S48" s="2" t="s">
         <v>516</v>
       </c>
       <c r="Y48" s="3" t="s">
@@ -6505,28 +6547,28 @@
       </c>
     </row>
     <row r="49" ht="49.95" customHeight="1" spans="2:32">
-      <c r="B49" s="1">
+      <c r="B49" s="2">
         <v>165</v>
       </c>
-      <c r="C49" s="1" t="s">
+      <c r="C49" s="2" t="s">
         <v>519</v>
       </c>
-      <c r="D49" s="1" t="s">
+      <c r="D49" s="2" t="s">
         <v>520</v>
       </c>
-      <c r="E49" s="1" t="s">
+      <c r="E49" s="2" t="s">
         <v>336</v>
       </c>
-      <c r="F49" s="1" t="s">
+      <c r="F49" s="2" t="s">
         <v>23</v>
       </c>
       <c r="G49" s="2" t="s">
         <v>521</v>
       </c>
-      <c r="H49" s="1" t="s">
+      <c r="H49" s="2" t="s">
         <v>522</v>
       </c>
-      <c r="I49" s="1" t="s">
+      <c r="I49" s="2" t="s">
         <v>522</v>
       </c>
       <c r="J49" s="2" t="s">
@@ -6538,22 +6580,23 @@
       <c r="L49" s="2" t="s">
         <v>525</v>
       </c>
-      <c r="M49" s="1" t="s">
+      <c r="M49" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="N49" s="1" t="s">
+      <c r="N49" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="O49" s="1">
+      <c r="O49" s="2">
         <v>121</v>
       </c>
-      <c r="P49" s="1" t="s">
+      <c r="P49" s="2" t="s">
         <v>520</v>
       </c>
-      <c r="R49" s="1">
+      <c r="Q49" s="2"/>
+      <c r="R49" s="2">
         <v>2431416666</v>
       </c>
-      <c r="S49" s="1" t="s">
+      <c r="S49" s="2" t="s">
         <v>526</v>
       </c>
       <c r="Y49" s="3" t="s">
@@ -6579,28 +6622,28 @@
       </c>
     </row>
     <row r="50" ht="49.95" customHeight="1" spans="2:32">
-      <c r="B50" s="1">
+      <c r="B50" s="2">
         <v>137</v>
       </c>
-      <c r="C50" s="1" t="s">
+      <c r="C50" s="2" t="s">
         <v>528</v>
       </c>
-      <c r="D50" s="1" t="s">
+      <c r="D50" s="2" t="s">
         <v>529</v>
       </c>
-      <c r="E50" s="1" t="s">
+      <c r="E50" s="2" t="s">
         <v>530</v>
       </c>
-      <c r="F50" s="1" t="s">
+      <c r="F50" s="2" t="s">
         <v>80</v>
       </c>
       <c r="G50" s="2" t="s">
         <v>531</v>
       </c>
-      <c r="H50" s="1" t="s">
+      <c r="H50" s="2" t="s">
         <v>532</v>
       </c>
-      <c r="I50" s="1" t="s">
+      <c r="I50" s="2" t="s">
         <v>532</v>
       </c>
       <c r="J50" s="2" t="s">
@@ -6612,22 +6655,23 @@
       <c r="L50" s="2" t="s">
         <v>535</v>
       </c>
-      <c r="M50" s="1" t="s">
+      <c r="M50" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="N50" s="1" t="s">
+      <c r="N50" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="O50" s="1">
+      <c r="O50" s="2">
         <v>213</v>
       </c>
-      <c r="P50" s="1" t="s">
+      <c r="P50" s="2" t="s">
         <v>529</v>
       </c>
-      <c r="R50" s="1">
+      <c r="Q50" s="2"/>
+      <c r="R50" s="2">
         <v>31238521</v>
       </c>
-      <c r="S50" s="1" t="s">
+      <c r="S50" s="2" t="s">
         <v>536</v>
       </c>
       <c r="Y50" s="3" t="s">
@@ -6653,28 +6697,28 @@
       </c>
     </row>
     <row r="51" ht="49.95" customHeight="1" spans="2:32">
-      <c r="B51" s="1">
+      <c r="B51" s="2">
         <v>167</v>
       </c>
-      <c r="C51" s="1" t="s">
+      <c r="C51" s="2" t="s">
         <v>538</v>
       </c>
-      <c r="D51" s="1" t="s">
+      <c r="D51" s="2" t="s">
         <v>539</v>
       </c>
-      <c r="E51" s="1" t="s">
+      <c r="E51" s="2" t="s">
         <v>540</v>
       </c>
-      <c r="F51" s="1" t="s">
+      <c r="F51" s="2" t="s">
         <v>23</v>
       </c>
       <c r="G51" s="2" t="s">
         <v>541</v>
       </c>
-      <c r="H51" s="1" t="s">
+      <c r="H51" s="2" t="s">
         <v>542</v>
       </c>
-      <c r="I51" s="1" t="s">
+      <c r="I51" s="2" t="s">
         <v>542</v>
       </c>
       <c r="J51" s="2" t="s">
@@ -6686,22 +6730,23 @@
       <c r="L51" s="2" t="s">
         <v>545</v>
       </c>
-      <c r="M51" s="1" t="s">
+      <c r="M51" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="N51" s="1" t="s">
+      <c r="N51" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="O51" s="1">
+      <c r="O51" s="2">
         <v>120</v>
       </c>
-      <c r="P51" s="1" t="s">
+      <c r="P51" s="2" t="s">
         <v>539</v>
       </c>
-      <c r="R51" s="1" t="s">
+      <c r="Q51" s="2"/>
+      <c r="R51" s="2" t="s">
         <v>546</v>
       </c>
-      <c r="S51" s="1" t="s">
+      <c r="S51" s="2" t="s">
         <v>547</v>
       </c>
       <c r="Y51" s="3" t="s">
@@ -6727,28 +6772,28 @@
       </c>
     </row>
     <row r="52" ht="49.95" customHeight="1" spans="2:32">
-      <c r="B52" s="1">
+      <c r="B52" s="2">
         <v>1600</v>
       </c>
-      <c r="C52" s="1" t="s">
+      <c r="C52" s="2" t="s">
         <v>549</v>
       </c>
-      <c r="D52" s="1" t="s">
+      <c r="D52" s="2" t="s">
         <v>550</v>
       </c>
-      <c r="E52" s="1" t="s">
+      <c r="E52" s="2" t="s">
         <v>336</v>
       </c>
-      <c r="F52" s="1" t="s">
+      <c r="F52" s="2" t="s">
         <v>142</v>
       </c>
       <c r="G52" s="2" t="s">
         <v>551</v>
       </c>
-      <c r="H52" s="1" t="s">
+      <c r="H52" s="2" t="s">
         <v>552</v>
       </c>
-      <c r="I52" s="1" t="s">
+      <c r="I52" s="2" t="s">
         <v>553</v>
       </c>
       <c r="J52" s="2" t="s">
@@ -6760,25 +6805,25 @@
       <c r="L52" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="M52" s="1" t="s">
+      <c r="M52" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="N52" s="1" t="s">
+      <c r="N52" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="O52" s="1">
+      <c r="O52" s="2">
         <v>232</v>
       </c>
-      <c r="P52" s="1" t="s">
+      <c r="P52" s="2" t="s">
         <v>556</v>
       </c>
-      <c r="Q52" s="1" t="s">
+      <c r="Q52" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="R52" s="1" t="s">
+      <c r="R52" s="2" t="s">
         <v>557</v>
       </c>
-      <c r="S52" s="1" t="s">
+      <c r="S52" s="2" t="s">
         <v>558</v>
       </c>
       <c r="Y52" s="3" t="s">
@@ -6804,28 +6849,28 @@
       </c>
     </row>
     <row r="53" ht="49.95" customHeight="1" spans="2:32">
-      <c r="B53" s="1">
+      <c r="B53" s="2">
         <v>1094</v>
       </c>
-      <c r="C53" s="1" t="s">
+      <c r="C53" s="2" t="s">
         <v>563</v>
       </c>
-      <c r="D53" s="1" t="s">
+      <c r="D53" s="2" t="s">
         <v>564</v>
       </c>
-      <c r="E53" s="1" t="s">
+      <c r="E53" s="2" t="s">
         <v>565</v>
       </c>
-      <c r="F53" s="1" t="s">
+      <c r="F53" s="2" t="s">
         <v>566</v>
       </c>
       <c r="G53" s="2" t="s">
         <v>567</v>
       </c>
-      <c r="H53" s="1" t="s">
+      <c r="H53" s="2" t="s">
         <v>568</v>
       </c>
-      <c r="I53" s="1" t="s">
+      <c r="I53" s="2" t="s">
         <v>568</v>
       </c>
       <c r="J53" s="2" t="s">
@@ -6837,18 +6882,21 @@
       <c r="L53" s="2" t="s">
         <v>570</v>
       </c>
-      <c r="M53" s="1" t="s">
+      <c r="M53" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="N53" s="1" t="s">
+      <c r="N53" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="O53" s="1">
+      <c r="O53" s="2">
         <v>34</v>
       </c>
-      <c r="R53" s="1" t="s">
+      <c r="P53" s="2"/>
+      <c r="Q53" s="2"/>
+      <c r="R53" s="2" t="s">
         <v>571</v>
       </c>
+      <c r="S53" s="2"/>
       <c r="Y53" s="3" t="s">
         <v>15</v>
       </c>
@@ -6872,28 +6920,28 @@
       </c>
     </row>
     <row r="54" ht="49.95" customHeight="1" spans="2:32">
-      <c r="B54" s="1">
+      <c r="B54" s="2">
         <v>1605</v>
       </c>
-      <c r="C54" s="1" t="s">
+      <c r="C54" s="2" t="s">
         <v>573</v>
       </c>
-      <c r="D54" s="1" t="s">
+      <c r="D54" s="2" t="s">
         <v>574</v>
       </c>
-      <c r="E54" s="1" t="s">
+      <c r="E54" s="2" t="s">
         <v>575</v>
       </c>
-      <c r="F54" s="1" t="s">
+      <c r="F54" s="2" t="s">
         <v>177</v>
       </c>
       <c r="G54" s="2" t="s">
         <v>576</v>
       </c>
-      <c r="H54" s="1" t="s">
+      <c r="H54" s="2" t="s">
         <v>577</v>
       </c>
-      <c r="I54" s="1" t="s">
+      <c r="I54" s="2" t="s">
         <v>577</v>
       </c>
       <c r="J54" s="2" t="s">
@@ -6905,24 +6953,25 @@
       <c r="L54" s="2" t="s">
         <v>580</v>
       </c>
-      <c r="M54" s="1" t="s">
+      <c r="M54" s="2" t="s">
         <v>581</v>
       </c>
-      <c r="N54" s="1" t="s">
+      <c r="N54" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="O54" s="1">
+      <c r="O54" s="2">
         <v>57</v>
       </c>
-      <c r="P54" s="1" t="s">
+      <c r="P54" s="2" t="s">
         <v>574</v>
       </c>
-      <c r="Q54" s="1" t="s">
+      <c r="Q54" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="R54" s="1">
+      <c r="R54" s="2">
         <v>13609811400</v>
       </c>
+      <c r="S54" s="2"/>
       <c r="Y54" s="3" t="s">
         <v>15</v>
       </c>
@@ -6943,28 +6992,28 @@
       </c>
     </row>
     <row r="55" ht="49.95" customHeight="1" spans="2:32">
-      <c r="B55" s="1">
+      <c r="B55" s="2">
         <v>1601</v>
       </c>
-      <c r="C55" s="1" t="s">
+      <c r="C55" s="2" t="s">
         <v>584</v>
       </c>
-      <c r="D55" s="1" t="s">
+      <c r="D55" s="2" t="s">
         <v>585</v>
       </c>
-      <c r="E55" s="1" t="s">
+      <c r="E55" s="2" t="s">
         <v>336</v>
       </c>
-      <c r="F55" s="1" t="s">
+      <c r="F55" s="2" t="s">
         <v>142</v>
       </c>
       <c r="G55" s="2" t="s">
         <v>586</v>
       </c>
-      <c r="H55" s="1" t="s">
+      <c r="H55" s="2" t="s">
         <v>587</v>
       </c>
-      <c r="I55" s="1" t="s">
+      <c r="I55" s="2" t="s">
         <v>587</v>
       </c>
       <c r="J55" s="2" t="s">
@@ -6976,25 +7025,25 @@
       <c r="L55" s="2" t="s">
         <v>590</v>
       </c>
-      <c r="M55" s="1" t="s">
+      <c r="M55" s="2" t="s">
         <v>591</v>
       </c>
-      <c r="N55" s="1" t="s">
+      <c r="N55" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="O55" s="1">
+      <c r="O55" s="2">
         <v>124</v>
       </c>
-      <c r="P55" s="1" t="s">
+      <c r="P55" s="2" t="s">
         <v>585</v>
       </c>
-      <c r="Q55" s="1" t="s">
+      <c r="Q55" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="R55" s="1">
+      <c r="R55" s="2">
         <v>31239179</v>
       </c>
-      <c r="S55" s="1" t="s">
+      <c r="S55" s="2" t="s">
         <v>592</v>
       </c>
       <c r="Y55" s="3" t="s">
@@ -7020,28 +7069,28 @@
       </c>
     </row>
     <row r="56" ht="49.95" customHeight="1" spans="2:32">
-      <c r="B56" s="1">
+      <c r="B56" s="2">
         <v>148</v>
       </c>
-      <c r="C56" s="1" t="s">
+      <c r="C56" s="2" t="s">
         <v>596</v>
       </c>
-      <c r="D56" s="1" t="s">
+      <c r="D56" s="2" t="s">
         <v>597</v>
       </c>
-      <c r="E56" s="1" t="s">
+      <c r="E56" s="2" t="s">
         <v>598</v>
       </c>
-      <c r="F56" s="1" t="s">
+      <c r="F56" s="2" t="s">
         <v>80</v>
       </c>
       <c r="G56" s="2" t="s">
         <v>599</v>
       </c>
-      <c r="H56" s="1" t="s">
+      <c r="H56" s="2" t="s">
         <v>600</v>
       </c>
-      <c r="I56" s="1" t="s">
+      <c r="I56" s="2" t="s">
         <v>600</v>
       </c>
       <c r="J56" s="2" t="s">
@@ -7053,21 +7102,23 @@
       <c r="L56" s="2" t="s">
         <v>603</v>
       </c>
-      <c r="M56" s="1" t="s">
+      <c r="M56" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="N56" s="1" t="s">
+      <c r="N56" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="O56" s="1">
+      <c r="O56" s="2">
         <v>67</v>
       </c>
-      <c r="P56" s="1" t="s">
+      <c r="P56" s="2" t="s">
         <v>597</v>
       </c>
-      <c r="R56" s="1" t="s">
+      <c r="Q56" s="2"/>
+      <c r="R56" s="2" t="s">
         <v>604</v>
       </c>
+      <c r="S56" s="2"/>
       <c r="Y56" s="3" t="s">
         <v>15</v>
       </c>
@@ -7091,28 +7142,28 @@
       </c>
     </row>
     <row r="57" ht="49.95" customHeight="1" spans="2:32">
-      <c r="B57" s="1">
+      <c r="B57" s="2">
         <v>161</v>
       </c>
-      <c r="C57" s="1" t="s">
+      <c r="C57" s="2" t="s">
         <v>606</v>
       </c>
-      <c r="D57" s="1" t="s">
+      <c r="D57" s="2" t="s">
         <v>607</v>
       </c>
-      <c r="E57" s="1" t="s">
+      <c r="E57" s="2" t="s">
         <v>608</v>
       </c>
-      <c r="F57" s="1" t="s">
+      <c r="F57" s="2" t="s">
         <v>80</v>
       </c>
       <c r="G57" s="2" t="s">
         <v>609</v>
       </c>
-      <c r="H57" s="1" t="s">
+      <c r="H57" s="2" t="s">
         <v>610</v>
       </c>
-      <c r="I57" s="1" t="s">
+      <c r="I57" s="2" t="s">
         <v>610</v>
       </c>
       <c r="J57" s="2" t="s">
@@ -7124,25 +7175,25 @@
       <c r="L57" s="2" t="s">
         <v>613</v>
       </c>
-      <c r="M57" s="1" t="s">
+      <c r="M57" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="N57" s="1" t="s">
+      <c r="N57" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="O57" s="1">
+      <c r="O57" s="2">
         <v>1200</v>
       </c>
-      <c r="P57" s="1" t="s">
+      <c r="P57" s="2" t="s">
         <v>607</v>
       </c>
-      <c r="Q57" s="1" t="s">
+      <c r="Q57" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="R57" s="1">
+      <c r="R57" s="2">
         <v>82619881</v>
       </c>
-      <c r="S57" s="1" t="s">
+      <c r="S57" s="2" t="s">
         <v>614</v>
       </c>
       <c r="Y57" s="3" t="s">
@@ -7168,28 +7219,28 @@
       </c>
     </row>
     <row r="58" ht="49.95" customHeight="1" spans="2:32">
-      <c r="B58" s="1">
+      <c r="B58" s="2">
         <v>1092</v>
       </c>
-      <c r="C58" s="1" t="s">
+      <c r="C58" s="2" t="s">
         <v>617</v>
       </c>
-      <c r="D58" s="1" t="s">
+      <c r="D58" s="2" t="s">
         <v>618</v>
       </c>
-      <c r="E58" s="1" t="s">
+      <c r="E58" s="2" t="s">
         <v>619</v>
       </c>
-      <c r="F58" s="1" t="s">
+      <c r="F58" s="2" t="s">
         <v>620</v>
       </c>
       <c r="G58" s="2" t="s">
         <v>621</v>
       </c>
-      <c r="H58" s="1" t="s">
+      <c r="H58" s="2" t="s">
         <v>622</v>
       </c>
-      <c r="I58" s="1" t="s">
+      <c r="I58" s="2" t="s">
         <v>622</v>
       </c>
       <c r="J58" s="2" t="s">
@@ -7201,24 +7252,25 @@
       <c r="L58" s="2" t="s">
         <v>625</v>
       </c>
-      <c r="M58" s="1" t="s">
+      <c r="M58" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="N58" s="1" t="s">
+      <c r="N58" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="O58" s="1">
+      <c r="O58" s="2">
         <v>34</v>
       </c>
-      <c r="P58" s="1" t="s">
+      <c r="P58" s="2" t="s">
         <v>618</v>
       </c>
-      <c r="Q58" s="1" t="s">
+      <c r="Q58" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="R58" s="1">
+      <c r="R58" s="2">
         <v>62770250</v>
       </c>
+      <c r="S58" s="2"/>
       <c r="Y58" s="3" t="s">
         <v>15</v>
       </c>
